--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/carolmmb_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Downloads\2022.2\Ciência dos Dados\22-2a-cd-p1-grupo_anandajgc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B78E4B-7F6E-4A9C-9A95-78382B0BFE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F1544-4533-4949-A61F-1B575EBB304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6980,7 +6980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7062,7 +7062,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7384,17 +7384,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L451"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>177</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>254</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>267</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>295</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>308</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>333</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>73</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>355</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>403</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>410</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>417</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>430</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>186</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>455</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>467</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>471</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>478</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>494</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>227</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>516</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>83</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>532</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>536</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>285</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>38</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>278</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>569</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>576</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>583</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>73</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>589</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>608</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>615</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>34</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>615</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>640</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>38</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>73</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>73</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>664</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>677</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>684</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>688</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>716</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>73</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>608</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>735</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>83</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>608</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>308</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>186</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>640</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>38</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>205</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>38</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>813</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>817</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>813</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>839</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>843</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>853</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>857</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>83</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>403</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>882</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>38</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>308</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>49</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>267</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>38</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>83</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>38</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>931</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>38</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>931</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>959</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>38</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>589</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>308</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>716</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>38</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>38</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>73</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>735</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>664</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>38</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>83</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>467</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>38</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>10</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>278</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>140</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>931</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>38</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>267</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>60</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>186</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1113</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>38</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>49</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1129</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>49</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1136</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>38</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>73</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>38</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>278</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>931</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>49</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>308</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>38</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1175</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>49</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>38</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>471</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>267</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>308</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1200</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1204</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1211</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1218</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1224</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>38</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>24</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>931</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1261</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>10</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>73</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1211</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>108</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1283</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>278</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>10</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>10</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>186</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>38</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>10</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>186</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>73</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>10</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>10</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>10</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>403</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>38</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>60</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>14</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>186</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>38</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>38</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1370</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>49</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>471</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>10</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>49</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>716</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>38</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>38</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>73</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1404</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1408</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>14</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>10</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>6</v>
       </c>
@@ -16423,16 +16423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>677</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1477</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1481</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1507</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>267</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>931</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>931</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>688</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1617</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1627</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1631</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1637</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>308</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>931</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -18408,7 +18408,7 @@
       </c>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1714</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>813</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>73</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>471</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1767</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1785</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>853</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>227</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1813</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>73</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>931</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1833</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>931</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1714</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1850</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>471</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>267</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>227</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>227</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1370</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>73</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>608</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1946</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>471</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1953</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>73</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1714</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1991</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>931</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>2019</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>308</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>140</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>49</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1477</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -20739,7 +20739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>2064</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1833</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>2077</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>716</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>455</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>2125</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>2132</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>403</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>2154</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>38</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>735</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1481</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>308</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>857</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>2236</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>38</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>73</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>576</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>140</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>24</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -22250,7 +22250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>931</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>38</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>403</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -22461,2254 +22461,2254 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>2</v>
       </c>
@@ -24719,9 +24719,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24910,22 +24913,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3612C5D-A80C-4130-959B-9B49742E7625}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02703BA-BBA5-4C2A-BE7D-D47AFA277988}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2242B8B7-D674-45E5-A146-EAFE6FCCED16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2242B8B7-D674-45E5-A146-EAFE6FCCED16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3a227c51-10a3-4ef1-bb21-ff2ced2372df"/>
+    <ds:schemaRef ds:uri="c68cd893-3131-4479-bd33-a29536e12ee4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02703BA-BBA5-4C2A-BE7D-D47AFA277988}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3612C5D-A80C-4130-959B-9B49742E7625}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Downloads\2022.2\Ciência dos Dados\22-2a-cd-p1-grupo_anandajgc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananda\CDADOS 22.2\22-2a-cd-p1-grupo_anandajgc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F1544-4533-4949-A61F-1B575EBB304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6D172-75D9-481D-B8B3-C550EBACC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7382,19 +7382,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7453,17 +7453,8 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7482,20 +7473,8 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="J4">
-        <f>COUNTIFS($F$2:$F$451,J3)</f>
-        <v>134</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIFS($F$2:$F$451,K3)</f>
-        <v>166</v>
-      </c>
-      <c r="L4">
-        <f>COUNTIFS($F$2:$F$451,L3)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7515,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -7555,7 +7534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7575,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7595,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -7615,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -7635,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -7655,7 +7634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7675,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -7695,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -7735,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -7755,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7775,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7795,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7815,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -7835,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -7855,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -7875,7 +7854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -7895,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7915,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7935,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -7955,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7972,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7992,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -8012,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -8032,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -8052,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -8072,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -8092,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -8112,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -8132,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -8152,7 +8131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -8172,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8192,7 +8171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -8212,7 +8191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8232,7 +8211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -8252,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -8272,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8292,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -8312,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8332,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -8352,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -8372,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8392,7 +8371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8412,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8432,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -8452,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8472,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -8492,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8512,7 +8491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -8532,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -8552,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8572,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8592,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -8612,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -8632,7 +8611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -8652,7 +8631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -8672,7 +8651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -8692,7 +8671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -8712,7 +8691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -8732,7 +8711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -8752,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8772,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -8792,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -8812,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -8832,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -8852,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -8872,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -8892,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>177</v>
       </c>
@@ -8912,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -8932,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -8952,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>254</v>
       </c>
@@ -8972,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -8992,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -9012,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -9032,7 +9011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>267</v>
       </c>
@@ -9052,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -9072,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -9092,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -9112,7 +9091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -9132,7 +9111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -9152,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9172,7 +9151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -9192,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>295</v>
       </c>
@@ -9212,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -9232,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -9252,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -9272,7 +9251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>308</v>
       </c>
@@ -9292,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -9312,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -9332,7 +9311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -9352,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9372,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -9412,7 +9391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -9432,7 +9411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>333</v>
       </c>
@@ -9452,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9472,7 +9451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -9492,7 +9471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -9512,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -9532,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>73</v>
       </c>
@@ -9552,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9572,7 +9551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>355</v>
       </c>
@@ -9592,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -9612,7 +9591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -9632,7 +9611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -9652,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -9672,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9692,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -9712,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -9732,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -9752,7 +9731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -9772,7 +9751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -9792,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -9812,7 +9791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -9832,7 +9811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -9852,7 +9831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -9872,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -9892,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>403</v>
       </c>
@@ -9912,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -9932,7 +9911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>410</v>
       </c>
@@ -9952,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -9972,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>417</v>
       </c>
@@ -9992,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -10012,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -10052,7 +10031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>430</v>
       </c>
@@ -10072,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -10092,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -10112,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -10132,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -10152,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>186</v>
       </c>
@@ -10172,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -10192,7 +10171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -10212,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>455</v>
       </c>
@@ -10229,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -10249,7 +10228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -10269,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -10289,7 +10268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>467</v>
       </c>
@@ -10309,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>471</v>
       </c>
@@ -10329,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -10349,7 +10328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>478</v>
       </c>
@@ -10369,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -10389,7 +10368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -10409,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10429,7 +10408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -10449,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>494</v>
       </c>
@@ -10469,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -10489,7 +10468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>227</v>
       </c>
@@ -10509,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -10529,7 +10508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -10549,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -10569,7 +10548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -10589,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>516</v>
       </c>
@@ -10609,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -10629,7 +10608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>83</v>
       </c>
@@ -10649,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -10669,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -10689,7 +10668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>532</v>
       </c>
@@ -10709,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>536</v>
       </c>
@@ -10729,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -10749,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10769,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -10789,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -10809,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>285</v>
       </c>
@@ -10829,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>38</v>
       </c>
@@ -10849,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -10869,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -10889,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>278</v>
       </c>
@@ -10909,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -10929,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>569</v>
       </c>
@@ -10949,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -10969,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>576</v>
       </c>
@@ -10989,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -11009,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>583</v>
       </c>
@@ -11029,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>73</v>
       </c>
@@ -11049,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>589</v>
       </c>
@@ -11069,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -11089,7 +11068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -11109,7 +11088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -11129,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -11149,7 +11128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -11169,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>608</v>
       </c>
@@ -11189,7 +11168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -11209,7 +11188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>615</v>
       </c>
@@ -11229,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11249,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11269,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -11289,7 +11268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>34</v>
       </c>
@@ -11309,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -11329,7 +11308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>615</v>
       </c>
@@ -11349,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -11369,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>640</v>
       </c>
@@ -11386,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -11406,7 +11385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>38</v>
       </c>
@@ -11426,7 +11405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>73</v>
       </c>
@@ -11446,7 +11425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>73</v>
       </c>
@@ -11466,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11486,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -11506,7 +11485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -11526,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>664</v>
       </c>
@@ -11546,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -11566,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -11586,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -11606,7 +11585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>677</v>
       </c>
@@ -11626,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -11646,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>684</v>
       </c>
@@ -11666,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>688</v>
       </c>
@@ -11686,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -11706,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -11726,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -11746,7 +11725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -11766,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -11786,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -11806,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -11826,7 +11805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -11846,7 +11825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>716</v>
       </c>
@@ -11866,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -11886,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>73</v>
       </c>
@@ -11906,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -11926,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -11946,7 +11925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>608</v>
       </c>
@@ -11966,7 +11945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>735</v>
       </c>
@@ -11986,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -12006,7 +11985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -12026,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>83</v>
       </c>
@@ -12046,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -12066,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -12086,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -12106,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -12126,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -12146,7 +12125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -12166,7 +12145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -12186,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -12206,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -12226,7 +12205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -12246,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>608</v>
       </c>
@@ -12266,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -12286,7 +12265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -12306,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -12326,7 +12305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -12346,7 +12325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>308</v>
       </c>
@@ -12366,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>186</v>
       </c>
@@ -12386,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>640</v>
       </c>
@@ -12406,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>38</v>
       </c>
@@ -12426,7 +12405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>205</v>
       </c>
@@ -12446,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>38</v>
       </c>
@@ -12466,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -12486,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>813</v>
       </c>
@@ -12506,7 +12485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>817</v>
       </c>
@@ -12526,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -12546,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -12566,7 +12545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -12586,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -12606,7 +12585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -12626,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>813</v>
       </c>
@@ -12646,7 +12625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>839</v>
       </c>
@@ -12666,7 +12645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>843</v>
       </c>
@@ -12686,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -12706,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +12705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>853</v>
       </c>
@@ -12746,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>857</v>
       </c>
@@ -12766,7 +12745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -12786,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -12806,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -12826,7 +12805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>83</v>
       </c>
@@ -12846,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -12866,7 +12845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>403</v>
       </c>
@@ -12886,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -12906,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>882</v>
       </c>
@@ -12926,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>38</v>
       </c>
@@ -12946,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12966,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12986,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>308</v>
       </c>
@@ -13006,7 +12985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -13026,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -13046,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -13066,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>49</v>
       </c>
@@ -13086,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -13106,7 +13085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -13126,7 +13105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -13146,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>267</v>
       </c>
@@ -13166,7 +13145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>38</v>
       </c>
@@ -13186,7 +13165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>83</v>
       </c>
@@ -13206,7 +13185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>38</v>
       </c>
@@ -13226,7 +13205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>931</v>
       </c>
@@ -13246,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -13266,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -13286,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -13306,7 +13285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -13326,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -13346,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>38</v>
       </c>
@@ -13366,7 +13345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>931</v>
       </c>
@@ -13386,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -13406,7 +13385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>959</v>
       </c>
@@ -13426,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>38</v>
       </c>
@@ -13446,7 +13425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>589</v>
       </c>
@@ -13466,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -13486,7 +13465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -13506,7 +13485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -13526,7 +13505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -13546,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -13566,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -13586,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -13606,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>308</v>
       </c>
@@ -13626,7 +13605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -13646,7 +13625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -13666,7 +13645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>716</v>
       </c>
@@ -13686,7 +13665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -13706,7 +13685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>38</v>
       </c>
@@ -13726,7 +13705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -13746,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -13766,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>38</v>
       </c>
@@ -13786,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>73</v>
       </c>
@@ -13806,7 +13785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>735</v>
       </c>
@@ -13823,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -13843,7 +13822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>664</v>
       </c>
@@ -13863,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -13883,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>38</v>
       </c>
@@ -13903,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -13920,7 +13899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>83</v>
       </c>
@@ -13940,7 +13919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -13960,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -13980,7 +13959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>467</v>
       </c>
@@ -14000,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>38</v>
       </c>
@@ -14020,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -14040,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>10</v>
       </c>
@@ -14060,7 +14039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>278</v>
       </c>
@@ -14080,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -14120,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>140</v>
       </c>
@@ -14140,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>931</v>
       </c>
@@ -14160,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -14180,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -14200,7 +14179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -14220,7 +14199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -14240,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>38</v>
       </c>
@@ -14260,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -14280,7 +14259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>267</v>
       </c>
@@ -14300,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -14320,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>60</v>
       </c>
@@ -14340,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -14360,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>186</v>
       </c>
@@ -14380,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14400,7 +14379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -14420,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -14440,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1113</v>
       </c>
@@ -14460,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>38</v>
       </c>
@@ -14480,7 +14459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -14500,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -14520,7 +14499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>49</v>
       </c>
@@ -14540,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1129</v>
       </c>
@@ -14560,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>49</v>
       </c>
@@ -14580,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1136</v>
       </c>
@@ -14600,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -14620,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>38</v>
       </c>
@@ -14637,7 +14616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>73</v>
       </c>
@@ -14657,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -14677,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>38</v>
       </c>
@@ -14697,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>278</v>
       </c>
@@ -14717,7 +14696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>931</v>
       </c>
@@ -14737,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>49</v>
       </c>
@@ -14757,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>308</v>
       </c>
@@ -14777,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -14797,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>38</v>
       </c>
@@ -14817,7 +14796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -14837,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1175</v>
       </c>
@@ -14857,7 +14836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -14877,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>49</v>
       </c>
@@ -14897,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -14917,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>38</v>
       </c>
@@ -14937,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>471</v>
       </c>
@@ -14957,7 +14936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>267</v>
       </c>
@@ -14977,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>308</v>
       </c>
@@ -14997,7 +14976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1200</v>
       </c>
@@ -15017,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1204</v>
       </c>
@@ -15037,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -15057,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1211</v>
       </c>
@@ -15077,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -15097,7 +15076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1218</v>
       </c>
@@ -15114,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -15134,7 +15113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1224</v>
       </c>
@@ -15154,7 +15133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>38</v>
       </c>
@@ -15174,7 +15153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>24</v>
       </c>
@@ -15194,7 +15173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -15214,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>931</v>
       </c>
@@ -15234,7 +15213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -15254,7 +15233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -15274,7 +15253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -15294,7 +15273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -15314,7 +15293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -15334,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -15354,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -15374,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1261</v>
       </c>
@@ -15394,7 +15373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>10</v>
       </c>
@@ -15414,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -15434,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>73</v>
       </c>
@@ -15454,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1211</v>
       </c>
@@ -15474,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>108</v>
       </c>
@@ -15494,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -15514,7 +15493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1283</v>
       </c>
@@ -15534,7 +15513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>278</v>
       </c>
@@ -15554,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>10</v>
       </c>
@@ -15574,7 +15553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>10</v>
       </c>
@@ -15594,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>186</v>
       </c>
@@ -15614,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -15634,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -15654,7 +15633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>38</v>
       </c>
@@ -15674,7 +15653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>10</v>
       </c>
@@ -15694,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -15714,7 +15693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>186</v>
       </c>
@@ -15734,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>73</v>
       </c>
@@ -15754,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -15774,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>10</v>
       </c>
@@ -15794,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>10</v>
       </c>
@@ -15814,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>10</v>
       </c>
@@ -15834,7 +15813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -15854,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -15874,7 +15853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>403</v>
       </c>
@@ -15894,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -15914,7 +15893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -15934,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>38</v>
       </c>
@@ -15954,7 +15933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>60</v>
       </c>
@@ -15974,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>14</v>
       </c>
@@ -15994,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>186</v>
       </c>
@@ -16014,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>38</v>
       </c>
@@ -16034,7 +16013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>38</v>
       </c>
@@ -16054,7 +16033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -16074,7 +16053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -16094,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1370</v>
       </c>
@@ -16114,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>49</v>
       </c>
@@ -16134,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -16154,7 +16133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>471</v>
       </c>
@@ -16174,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -16194,7 +16173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>10</v>
       </c>
@@ -16214,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>49</v>
       </c>
@@ -16234,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>716</v>
       </c>
@@ -16254,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>38</v>
       </c>
@@ -16274,7 +16253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>38</v>
       </c>
@@ -16294,7 +16273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>73</v>
       </c>
@@ -16314,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1404</v>
       </c>
@@ -16334,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1408</v>
       </c>
@@ -16354,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>14</v>
       </c>
@@ -16374,7 +16353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>10</v>
       </c>
@@ -16394,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>6</v>
       </c>
@@ -16423,16 +16402,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16452,7 +16431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -16471,17 +16450,8 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -16500,20 +16470,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <f>COUNTIFS($F$2:$F$301,H2)</f>
-        <v>85</v>
-      </c>
-      <c r="I3">
-        <f>COUNTIFS($F$2:$F$301,I2)</f>
-        <v>109</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIFS($F$2:$F$301,J2)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -16533,7 +16491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -16553,7 +16511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -16573,7 +16531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -16593,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>677</v>
       </c>
@@ -16613,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -16633,7 +16591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -16653,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16673,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -16693,7 +16651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -16713,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -16733,7 +16691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -16753,7 +16711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -16773,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16793,7 +16751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -16813,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -16833,7 +16791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -16853,7 +16811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1477</v>
       </c>
@@ -16873,7 +16831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1481</v>
       </c>
@@ -16893,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -16913,7 +16871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16933,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16953,7 +16911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -16970,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -16990,7 +16948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -17010,7 +16968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -17030,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -17050,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1507</v>
       </c>
@@ -17070,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -17090,7 +17048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17110,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -17130,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -17150,7 +17108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -17170,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -17190,7 +17148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>267</v>
       </c>
@@ -17210,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -17230,7 +17188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -17250,7 +17208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -17270,7 +17228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -17290,7 +17248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -17310,7 +17268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -17330,7 +17288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -17350,7 +17308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -17370,7 +17328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>931</v>
       </c>
@@ -17390,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -17410,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -17430,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -17450,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -17470,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>931</v>
       </c>
@@ -17490,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -17510,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -17530,7 +17488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -17550,7 +17508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -17570,7 +17528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -17590,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -17610,7 +17568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -17630,7 +17588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -17650,7 +17608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -17670,7 +17628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -17690,7 +17648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -17710,7 +17668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -17730,7 +17688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>688</v>
       </c>
@@ -17750,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -17770,7 +17728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -17790,7 +17748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1617</v>
       </c>
@@ -17810,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -17830,7 +17788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -17850,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1627</v>
       </c>
@@ -17870,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1631</v>
       </c>
@@ -17890,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -17907,7 +17865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1637</v>
       </c>
@@ -17927,7 +17885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -17947,7 +17905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -17967,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -17987,7 +17945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -18007,7 +17965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -18027,7 +17985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -18047,7 +18005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -18067,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -18087,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -18107,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -18127,7 +18085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -18147,7 +18105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -18167,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -18187,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -18207,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>308</v>
       </c>
@@ -18227,7 +18185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -18247,7 +18205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -18267,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -18287,7 +18245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -18307,7 +18265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>931</v>
       </c>
@@ -18327,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -18347,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -18367,7 +18325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -18387,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -18408,7 +18366,7 @@
       </c>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -18428,7 +18386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1714</v>
       </c>
@@ -18448,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -18468,7 +18426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -18488,7 +18446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -18508,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -18528,7 +18486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>813</v>
       </c>
@@ -18548,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>73</v>
       </c>
@@ -18568,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -18588,7 +18546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -18608,7 +18566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -18628,7 +18586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -18648,7 +18606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -18668,7 +18626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -18688,7 +18646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -18708,7 +18666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -18728,7 +18686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -18748,7 +18706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -18768,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>471</v>
       </c>
@@ -18788,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1767</v>
       </c>
@@ -18808,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -18828,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -18848,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -18868,7 +18826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -18888,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1785</v>
       </c>
@@ -18928,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -18948,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>853</v>
       </c>
@@ -18968,7 +18926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -18988,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -19008,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -19028,7 +18986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>227</v>
       </c>
@@ -19048,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -19068,7 +19026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -19088,7 +19046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1813</v>
       </c>
@@ -19108,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -19128,7 +19086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -19148,7 +19106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>73</v>
       </c>
@@ -19168,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -19188,7 +19146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>931</v>
       </c>
@@ -19208,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -19228,7 +19186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1833</v>
       </c>
@@ -19248,7 +19206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>931</v>
       </c>
@@ -19268,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -19288,7 +19246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1714</v>
       </c>
@@ -19308,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -19325,7 +19283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -19345,7 +19303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1850</v>
       </c>
@@ -19362,7 +19320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -19382,7 +19340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>471</v>
       </c>
@@ -19402,7 +19360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -19422,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -19442,7 +19400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -19462,7 +19420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -19482,7 +19440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>267</v>
       </c>
@@ -19502,7 +19460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -19522,7 +19480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -19542,7 +19500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -19562,7 +19520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -19582,7 +19540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -19602,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -19622,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -19642,7 +19600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -19662,7 +19620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -19682,7 +19640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>227</v>
       </c>
@@ -19702,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>227</v>
       </c>
@@ -19722,7 +19680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -19742,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -19762,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -19782,7 +19740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -19802,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -19822,7 +19780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -19842,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1370</v>
       </c>
@@ -19862,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>73</v>
       </c>
@@ -19879,7 +19837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -19899,7 +19857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -19919,7 +19877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -19939,7 +19897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -19959,7 +19917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>608</v>
       </c>
@@ -19979,7 +19937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -19999,7 +19957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1946</v>
       </c>
@@ -20019,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>471</v>
       </c>
@@ -20039,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1953</v>
       </c>
@@ -20059,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -20079,7 +20037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -20099,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -20119,7 +20077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -20139,7 +20097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -20159,7 +20117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -20179,7 +20137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -20199,7 +20157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -20219,7 +20177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>73</v>
       </c>
@@ -20239,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -20259,7 +20217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1714</v>
       </c>
@@ -20279,7 +20237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -20299,7 +20257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1991</v>
       </c>
@@ -20319,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -20339,7 +20297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -20359,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>931</v>
       </c>
@@ -20379,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -20399,7 +20357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -20419,7 +20377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -20439,7 +20397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -20459,7 +20417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -20479,7 +20437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2019</v>
       </c>
@@ -20499,7 +20457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -20519,7 +20477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>308</v>
       </c>
@@ -20539,7 +20497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -20559,7 +20517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -20579,7 +20537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>140</v>
       </c>
@@ -20599,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>49</v>
       </c>
@@ -20619,7 +20577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -20639,7 +20597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -20659,7 +20617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -20679,7 +20637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -20699,7 +20657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1477</v>
       </c>
@@ -20719,7 +20677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -20739,7 +20697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -20759,7 +20717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -20779,7 +20737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2064</v>
       </c>
@@ -20799,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1833</v>
       </c>
@@ -20819,7 +20777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -20839,7 +20797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -20859,7 +20817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2077</v>
       </c>
@@ -20879,7 +20837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -20899,7 +20857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -20919,7 +20877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -20939,7 +20897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -20956,7 +20914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -20976,7 +20934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -20996,7 +20954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -21016,7 +20974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>716</v>
       </c>
@@ -21036,7 +20994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -21056,7 +21014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -21076,7 +21034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -21096,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -21116,7 +21074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -21136,7 +21094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -21156,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>455</v>
       </c>
@@ -21173,7 +21131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2125</v>
       </c>
@@ -21193,7 +21151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -21213,7 +21171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2132</v>
       </c>
@@ -21233,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -21253,7 +21211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>403</v>
       </c>
@@ -21273,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -21293,7 +21251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -21313,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -21333,7 +21291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -21353,7 +21311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2154</v>
       </c>
@@ -21373,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -21393,7 +21351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -21413,7 +21371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -21433,7 +21391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -21453,7 +21411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -21473,7 +21431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -21493,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -21513,7 +21471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -21533,7 +21491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -21553,7 +21511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>38</v>
       </c>
@@ -21573,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>735</v>
       </c>
@@ -21593,7 +21551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1481</v>
       </c>
@@ -21613,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -21633,7 +21591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>308</v>
       </c>
@@ -21653,7 +21611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -21673,7 +21631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -21693,7 +21651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -21713,7 +21671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -21733,7 +21691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -21753,7 +21711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -21773,7 +21731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -21793,7 +21751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -21813,7 +21771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -21833,7 +21791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -21853,7 +21811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>857</v>
       </c>
@@ -21870,7 +21828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -21890,7 +21848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>73</v>
       </c>
@@ -21910,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2236</v>
       </c>
@@ -21930,7 +21888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -21950,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -21970,7 +21928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -21990,7 +21948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -22010,7 +21968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -22030,7 +21988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>38</v>
       </c>
@@ -22050,7 +22008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>73</v>
       </c>
@@ -22070,7 +22028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -22090,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>576</v>
       </c>
@@ -22110,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>140</v>
       </c>
@@ -22130,7 +22088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -22150,7 +22108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -22170,7 +22128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>24</v>
       </c>
@@ -22190,7 +22148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -22210,7 +22168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -22230,7 +22188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -22250,7 +22208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -22270,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -22290,7 +22248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -22310,7 +22268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>931</v>
       </c>
@@ -22330,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -22350,7 +22308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -22370,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>38</v>
       </c>
@@ -22390,7 +22348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -22410,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>403</v>
       </c>
@@ -22430,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -22461,2254 +22419,2254 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>2</v>
       </c>
@@ -24719,12 +24677,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24913,15 +24868,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02703BA-BBA5-4C2A-BE7D-D47AFA277988}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3612C5D-A80C-4130-959B-9B49742E7625}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24946,10 +24905,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3612C5D-A80C-4130-959B-9B49742E7625}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02703BA-BBA5-4C2A-BE7D-D47AFA277988}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>